--- a/misc/ComponentsBOM.xlsx
+++ b/misc/ComponentsBOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://olincollege-my.sharepoint.com/personal/jliu3_olin_edu/Documents/Documents/GitHub/STM32_FlightController/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="249" documentId="11_F25DC773A252ABDACC104810A9DE56DA5BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09FDCEFD-0624-41A2-9FD4-136DB9A9F65F}"/>
+  <xr:revisionPtr revIDLastSave="286" documentId="11_F25DC773A252ABDACC104810A9DE56DA5BDE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71F74825-72DF-43E5-9B60-20B9BBD1ED3B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Electronic Parts" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="137">
   <si>
     <t>PART NUMBER</t>
   </si>
@@ -330,9 +330,6 @@
     <t>U7</t>
   </si>
   <si>
-    <t>BMP390L</t>
-  </si>
-  <si>
     <t>Barometric Pressure Sensor</t>
   </si>
   <si>
@@ -439,6 +436,18 @@
   </si>
   <si>
     <t>https://www.amazon.com/HQProp-7X3-5X3-3-Blade-Propellers-Carbonate/dp/B0CTY33T4G?_encoding=UTF8&amp;camp=1789&amp;creative=9325&amp;crid=1MJCXVX8NOFLP&amp;dib=eyJ2IjoiMSJ9.9XXqIMEG0hkh6giGkwNvb3g5J6Bnkh3UgSjlz7cTxKjID1GUwhr34BOQXwPVZDy6aLGbXsdOajah1Deo5QV8r1gaoIpZHBLPqVwnJzIGWP8.F8jM9bmP7jM-g8D4rgc3kPuVlUmab-qcsPaU-l_PMgo&amp;dib_tag=se&amp;keywords=hq+7x3.5x3&amp;linkCode=ur2&amp;linkId=8b76cd3c892fd81d120d9d34f9399728&amp;qid=1749760419&amp;sprefix=hq+7x3.5x3%252Caps%252C148&amp;sr=8-1</t>
+  </si>
+  <si>
+    <t>https://www.radiomasterrc.com/collections/transmitter/products/boxer-radio-controller-m2?variant=45434990002407</t>
+  </si>
+  <si>
+    <t>Radio Transmitter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boxer Radio Controller (M2) </t>
+  </si>
+  <si>
+    <t>BMP390</t>
   </si>
 </sst>
 </file>
@@ -1038,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,7 +1086,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1085,7 +1094,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -1104,7 +1113,7 @@
         <v>1.3</v>
       </c>
       <c r="H2" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1131,7 +1140,7 @@
         <v>0.85799999999999998</v>
       </c>
       <c r="H3" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1158,7 +1167,7 @@
         <v>0.09</v>
       </c>
       <c r="H4" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1185,7 +1194,7 @@
         <v>1.6199999999999999</v>
       </c>
       <c r="H5" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1193,7 +1202,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>23</v>
@@ -1212,7 +1221,7 @@
         <v>1.7000000000000002</v>
       </c>
       <c r="H6" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1220,7 +1229,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>26</v>
@@ -1239,7 +1248,7 @@
         <v>2.7800000000000002</v>
       </c>
       <c r="H7" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1247,7 +1256,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>29</v>
@@ -1266,7 +1275,7 @@
         <v>1.3800000000000001</v>
       </c>
       <c r="H8" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1293,7 +1302,7 @@
         <v>0.52500000000000002</v>
       </c>
       <c r="H9" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1301,7 +1310,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>36</v>
@@ -1320,7 +1329,7 @@
         <v>0.68</v>
       </c>
       <c r="H10" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1347,7 +1356,7 @@
         <v>0.6</v>
       </c>
       <c r="H11" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1374,7 +1383,7 @@
         <v>4.42</v>
       </c>
       <c r="H12" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1401,7 +1410,7 @@
         <v>1.56</v>
       </c>
       <c r="H13" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1415,20 +1424,20 @@
         <v>52</v>
       </c>
       <c r="D14" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F14" s="6">
-        <v>0.49199999999999999</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="0"/>
-        <v>1.968</v>
+        <v>4.6719999999999997</v>
       </c>
       <c r="H14" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1455,7 +1464,7 @@
         <v>1.22</v>
       </c>
       <c r="H15" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1463,7 +1472,7 @@
         <v>57</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>58</v>
@@ -1472,7 +1481,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F16" s="6">
         <v>7.0000000000000001E-3</v>
@@ -1482,7 +1491,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="H16" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1490,7 +1499,7 @@
         <v>59</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>60</v>
@@ -1499,7 +1508,7 @@
         <v>40</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F17" s="6">
         <v>8.0000000000000002E-3</v>
@@ -1509,7 +1518,7 @@
         <v>0.32</v>
       </c>
       <c r="H17" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1517,7 +1526,7 @@
         <v>61</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>62</v>
@@ -1526,7 +1535,7 @@
         <v>30</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F18" s="6">
         <v>7.0000000000000001E-3</v>
@@ -1536,7 +1545,7 @@
         <v>0.21</v>
       </c>
       <c r="H18" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1544,7 +1553,7 @@
         <v>63</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>64</v>
@@ -1553,7 +1562,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F19" s="6">
         <v>7.0000000000000001E-3</v>
@@ -1563,7 +1572,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H19" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1590,7 +1599,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H20" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1617,7 +1626,7 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="H21" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1644,7 +1653,7 @@
         <v>2.9099999999999997</v>
       </c>
       <c r="H22" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1671,7 +1680,7 @@
         <v>13.56</v>
       </c>
       <c r="H23" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1698,7 +1707,7 @@
         <v>22.28</v>
       </c>
       <c r="H24" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1725,7 +1734,7 @@
         <v>1.7999999999999998</v>
       </c>
       <c r="H25" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1752,7 +1761,7 @@
         <v>1.35</v>
       </c>
       <c r="H26" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1769,7 +1778,7 @@
         <v>5</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F27" s="6">
         <v>0.2</v>
@@ -1779,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1787,16 +1796,16 @@
         <v>96</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="D28" s="4">
         <v>2</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F28" s="6">
         <v>3.15</v>
@@ -1806,24 +1815,24 @@
         <v>6.3</v>
       </c>
       <c r="H28" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>101</v>
       </c>
       <c r="D29" s="11">
         <v>5</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F29" s="21">
         <v>0.16489999999999999</v>
@@ -1833,26 +1842,26 @@
         <v>0.82450000000000001</v>
       </c>
       <c r="H29" s="23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="15"/>
       <c r="C30" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D30" s="17">
         <f>SUM(D2:D29)</f>
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G30" s="19">
         <f>SUM(G2:G29)</f>
-        <v>74.845500000000001</v>
+        <v>77.549499999999995</v>
       </c>
     </row>
   </sheetData>
@@ -1883,9 +1892,10 @@
     <hyperlink ref="E17" r:id="rId24" xr:uid="{5672825D-6E1C-47A1-8071-744D21D474FE}"/>
     <hyperlink ref="E18" r:id="rId25" xr:uid="{0EA43789-3FF5-4E21-9924-25E1B60A3C11}"/>
     <hyperlink ref="E19" r:id="rId26" xr:uid="{18E4997B-6AA0-4CDA-BD1A-395E0ACC8FC3}"/>
+    <hyperlink ref="E14" r:id="rId27" xr:uid="{297E91C3-8FB1-465F-81FB-A667487A5592}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId27"/>
+  <pageSetup orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
 
@@ -1893,8 +1903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0CFF7A-DF1B-45A0-B954-33077E386676}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1928,21 +1938,21 @@
         <v>6</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="E2" s="9">
         <v>18.989999999999998</v>
@@ -1957,16 +1967,16 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E3" s="9">
         <v>99.99</v>
@@ -1981,16 +1991,16 @@
     </row>
     <row r="4" spans="1:7" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E4" s="9">
         <v>29.89</v>
@@ -2005,16 +2015,16 @@
     </row>
     <row r="5" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="E5" s="9">
         <v>19.989999999999998</v>
@@ -2028,12 +2038,25 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="7"/>
+      <c r="A6" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="9">
+        <v>139.99</v>
+      </c>
+      <c r="F6" s="7">
+        <f>C6*E6</f>
+        <v>139.99</v>
+      </c>
       <c r="G6" s="23" t="b">
         <v>0</v>
       </c>
@@ -2363,19 +2386,19 @@
     <row r="30" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C30" s="17">
         <f>SUM(C2:C29)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" s="15"/>
       <c r="E30" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F30" s="19">
         <f>SUM(F2:F29)</f>
-        <v>168.86</v>
+        <v>308.85000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -2383,6 +2406,7 @@
     <hyperlink ref="D2" r:id="rId1" xr:uid="{80268660-7767-4431-90DF-55E9AD75CBFE}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{29BBA83A-A6E6-48E0-9CE2-023CCEFF1BA8}"/>
     <hyperlink ref="D5" r:id="rId3" display="https://www.amazon.com/HQProp-7X3-5X3-3-Blade-Propellers-Carbonate/dp/B0CTY33T4G?_encoding=UTF8&amp;camp=1789&amp;creative=9325&amp;crid=1MJCXVX8NOFLP&amp;dib=eyJ2IjoiMSJ9.9XXqIMEG0hkh6giGkwNvb3g5J6Bnkh3UgSjlz7cTxKjID1GUwhr34BOQXwPVZDy6aLGbXsdOajah1Deo5QV8r1gaoIpZHBLPqVwnJzIGWP8.F8jM9bmP7jM-g8D4rgc3kPuVlUmab-qcsPaU-l_PMgo&amp;dib_tag=se&amp;keywords=hq+7x3.5x3&amp;linkCode=ur2&amp;linkId=8b76cd3c892fd81d120d9d34f9399728&amp;qid=1749760419&amp;sprefix=hq+7x3.5x3%252Caps%252C148&amp;sr=8-1" xr:uid="{5C4CD5E7-562B-492C-92EA-C9339817FD1D}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{705A3F19-C6D2-4C8A-8EDF-1D5333A062DC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
